--- a/Python/PlayPython/Budget/Transactions.xlsx
+++ b/Python/PlayPython/Budget/Transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -26,12 +26,30 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Dad payment</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>expnse</t>
+  </si>
+  <si>
+    <t>expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -84,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,6 +422,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>-900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
